--- a/data/state_election_results/rhodeisland_president.xlsx
+++ b/data/state_election_results/rhodeisland_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8EECE3-D389-0E44-AF40-23F875855930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05C21C-9A2A-404F-A44E-751D34A6611E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" xr2:uid="{320C7D9D-84BC-CC46-A9CD-8A36388B8872}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Bristol</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>trump.percent</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,32 +431,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDE5404-D779-EB4E-9761-F86B4A90926D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>18050</v>
@@ -473,7 +471,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>166288</v>
@@ -490,7 +488,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>44549</v>
@@ -507,7 +505,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>49113</v>
@@ -524,7 +522,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>29486</v>
